--- a/ig/ch-etoc/StructureDefinition-ch-etoc-immunization.xlsx
+++ b/ig/ch-etoc/StructureDefinition-ch-etoc-immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T16:16:29+01:00</t>
+    <t>2023-12-28T11:52:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1859,17 +1859,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="65.31640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.78125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="30.546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.51953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="44.9375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="29.7578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="97.56640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="97.7265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1878,27 +1878,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="66.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="92.36328125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="43.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="64.84375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="92.6640625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="42.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="147.5546875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="236.8828125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="158.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="143.35546875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="227.703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="156.00390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-etoc/StructureDefinition-ch-etoc-immunization.xlsx
+++ b/ig/ch-etoc/StructureDefinition-ch-etoc-immunization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$72</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2859" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2673" uniqueCount="467">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>3.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-28T11:52:12+01:00</t>
+    <t>2024-05-17T13:00:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Juerg P. Bleuer (https://www.hl7.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -117,7 +117,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-vacd/StructureDefinition/ch-vacd-immunization</t>
+    <t>http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-immunization</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -413,7 +413,7 @@
 </t>
   </si>
   <si>
-    <t>Immunization inline resource</t>
+    <t>Contained, inline Resources</t>
   </si>
   <si>
     <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
@@ -465,6 +465,9 @@
 </t>
   </si>
   <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
     <t>The recorder Reference of the immunization. May be a Practitioner or a Patient</t>
   </si>
   <si>
@@ -472,54 +475,6 @@
 </t>
   </si>
   <si>
-    <t>Immunization.extension:medication</t>
-  </si>
-  <si>
-    <t>medication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-vacd/StructureDefinition/ch-vacd-ext-immunization-medication-reference}
-</t>
-  </si>
-  <si>
-    <t>Extension to reference immunization medication resource</t>
-  </si>
-  <si>
-    <t>The Reference to the Medication resource defining the vaccination material.</t>
-  </si>
-  <si>
-    <t>Immunization.extension:relatesTo</t>
-  </si>
-  <si>
-    <t>relatesTo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-ext-entry-resource-cross-references}
-</t>
-  </si>
-  <si>
-    <t>Entry Resource Cross References</t>
-  </si>
-  <si>
-    <t>The definition of a relation of this immunization entry in this document to an immunization entry in an other document.</t>
-  </si>
-  <si>
-    <t>Immunization.extension:conflict</t>
-  </si>
-  <si>
-    <t>conflict</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://fhir.ch/ig/ch-vacd/StructureDefinition/ch-vacd-ext-merging-conflict-entry-reference}
-</t>
-  </si>
-  <si>
-    <t>Reference to related resource</t>
-  </si>
-  <si>
-    <t>Extension to make a reference to an entry conflicting with other entries.</t>
-  </si>
-  <si>
     <t>Immunization.modifierExtension</t>
   </si>
   <si>
@@ -550,7 +505,7 @@
 </t>
   </si>
   <si>
-    <t>Immunization item ID</t>
+    <t>Business identifier</t>
   </si>
   <si>
     <t>A unique identifier assigned to this immunization record.</t>
@@ -638,9 +593,6 @@
     <t>Vaccine that was administered or was to be administered.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>http://fhir.ch/ig/ch-vacd/ValueSet/ch-vacd-vaccines-vs</t>
   </si>
   <si>
@@ -749,21 +701,6 @@
     <t>http://fhir.ch/ig/ch-vacd/ValueSet/ch-vacd-vaccines-snomedct-vs</t>
   </si>
   <si>
-    <t>Immunization.vaccineCode.coding:absentOrUnknownImmunization</t>
-  </si>
-  <si>
-    <t>absentOrUnknownImmunization</t>
-  </si>
-  <si>
-    <t>Absent Unknown Immunization</t>
-  </si>
-  <si>
-    <t>A reference to a code indicating that there there are no known immunizations or that this information is unknown.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/ips/ValueSet/absent-or-unknown-immunizations-uv-ips</t>
-  </si>
-  <si>
     <t>Immunization.vaccineCode.text</t>
   </si>
   <si>
@@ -1146,6 +1083,9 @@
     <t>Describes the type of performance (e.g. ordering provider, administering provider, etc.).</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>The role a practitioner or organization plays in the immunization event.</t>
   </si>
   <si>
@@ -1161,7 +1101,7 @@
     <t>Immunization.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitioner|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-practitionerrole|http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-organization)
 </t>
   </si>
   <si>
@@ -1510,16 +1450,6 @@
   </si>
   <si>
     <t>The use of an integer is preferred if known. A string should only be used in cases where an integer is not available (such as when documenting a recurring booster dose).</t>
-  </si>
-  <si>
-    <t>Immunization.protocolApplied.doseNumber[x]:doseNumberPositiveInt</t>
-  </si>
-  <si>
-    <t>doseNumberPositiveInt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
   </si>
   <si>
     <t>Immunization.protocolApplied.seriesDoses[x]</t>
@@ -1850,7 +1780,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO77"/>
+  <dimension ref="A1:AO72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1859,17 +1789,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="63.51953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.9375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="29.7578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.40625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="45.78125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="97.7265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="191.48046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1878,27 +1808,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.84375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="92.6640625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="42.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.7265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="92.36328125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="43.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="143.35546875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="227.703125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="156.00390625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="147.5546875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="236.8828125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="158.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2740,7 +2670,7 @@
         <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>79</v>
@@ -2975,7 +2905,7 @@
         <v>89</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>79</v>
@@ -2987,10 +2917,10 @@
         <v>143</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3050,7 +2980,7 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>140</v>
@@ -3062,7 +2992,7 @@
         <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>79</v>
@@ -3073,35 +3003,33 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C11" t="s" s="2">
         <v>147</v>
       </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="I11" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>149</v>
@@ -3109,8 +3037,12 @@
       <c r="M11" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="N11" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P11" t="s" s="2">
         <v>79</v>
       </c>
@@ -3158,7 +3090,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3167,7 +3099,7 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>140</v>
@@ -3179,7 +3111,7 @@
         <v>79</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>79</v>
@@ -3190,14 +3122,12 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>79</v>
       </c>
@@ -3206,7 +3136,7 @@
         <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -3218,13 +3148,13 @@
         <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3275,7 +3205,7 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3284,66 +3214,66 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>79</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="I13" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>79</v>
@@ -3368,13 +3298,13 @@
         <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>79</v>
@@ -3392,31 +3322,31 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>79</v>
+        <v>169</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>79</v>
@@ -3424,46 +3354,44 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>79</v>
       </c>
@@ -3487,13 +3415,13 @@
         <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>79</v>
@@ -3511,28 +3439,28 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>79</v>
+        <v>180</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>79</v>
@@ -3543,10 +3471,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3557,25 +3485,25 @@
         <v>89</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3602,13 +3530,11 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>79</v>
@@ -3626,13 +3552,13 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>79</v>
@@ -3641,27 +3567,27 @@
         <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>175</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3669,32 +3595,30 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>79</v>
@@ -3719,13 +3643,13 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>79</v>
@@ -3743,10 +3667,10 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>89</v>
@@ -3755,19 +3679,19 @@
         <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>79</v>
@@ -3775,21 +3699,21 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
@@ -3801,16 +3725,16 @@
         <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3836,52 +3760,52 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>79</v>
@@ -3892,10 +3816,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3903,13 +3827,13 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>79</v>
@@ -3918,16 +3842,20 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>79</v>
       </c>
@@ -3951,35 +3879,37 @@
         <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="Y18" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z18" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>79</v>
@@ -3988,29 +3918,31 @@
         <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>79</v>
       </c>
@@ -4028,19 +3960,23 @@
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="O19" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>79</v>
       </c>
@@ -4064,13 +4000,11 @@
         <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>79</v>
@@ -4094,22 +4028,22 @@
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4120,21 +4054,23 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="D20" t="s" s="2">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -4143,21 +4079,23 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4181,31 +4119,29 @@
         <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4217,16 +4153,16 @@
         <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>79</v>
@@ -4237,10 +4173,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4251,10 +4187,10 @@
         <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>79</v>
@@ -4263,19 +4199,19 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>79</v>
@@ -4312,16 +4248,16 @@
         <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>225</v>
@@ -4330,7 +4266,7 @@
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>79</v>
@@ -4359,17 +4295,15 @@
         <v>228</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>89</v>
@@ -4384,20 +4318,16 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>230</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4421,11 +4351,13 @@
         <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="Y22" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z22" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>79</v>
@@ -4443,13 +4375,13 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>79</v>
@@ -4458,16 +4390,16 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>79</v>
+        <v>232</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4475,14 +4407,12 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4500,23 +4430,19 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4540,11 +4466,13 @@
         <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>79</v>
@@ -4562,13 +4490,13 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>79</v>
@@ -4577,16 +4505,16 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>79</v>
+        <v>240</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -4594,20 +4522,18 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>89</v>
@@ -4622,20 +4548,18 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>79</v>
       </c>
@@ -4659,35 +4583,35 @@
         <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="Y24" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z24" t="s" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
@@ -4696,29 +4620,31 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4739,20 +4665,18 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4800,10 +4724,10 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>89</v>
@@ -4815,27 +4739,27 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>79</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4843,7 +4767,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>89</v>
@@ -4855,16 +4779,16 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4915,10 +4839,10 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>89</v>
@@ -4930,16 +4854,16 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -4947,10 +4871,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4970,18 +4894,20 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -5030,7 +4956,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5045,16 +4971,16 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
@@ -5062,10 +4988,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5073,7 +4999,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>89</v>
@@ -5085,19 +5011,19 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>265</v>
+        <v>173</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5123,32 +5049,34 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>79</v>
+        <v>275</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>79</v>
+        <v>276</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AC28" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>89</v>
@@ -5160,31 +5088,29 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>273</v>
-      </c>
       <c r="AO28" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5196,26 +5122,24 @@
         <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5264,10 +5188,10 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>89</v>
@@ -5279,27 +5203,27 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>274</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5322,13 +5246,13 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5379,7 +5303,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5397,24 +5321,24 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5434,20 +5358,18 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>284</v>
+        <v>192</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -5496,7 +5418,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5514,24 +5436,24 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5554,17 +5476,15 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>187</v>
+        <v>300</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -5589,13 +5509,13 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>295</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>79</v>
@@ -5613,7 +5533,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5631,13 +5551,13 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>290</v>
+        <v>79</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -5645,10 +5565,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5671,13 +5591,13 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>299</v>
+        <v>173</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5704,13 +5624,13 @@
         <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>79</v>
+        <v>308</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>79</v>
+        <v>309</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>79</v>
@@ -5728,7 +5648,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5743,27 +5663,27 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>305</v>
+        <v>79</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5786,13 +5706,13 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>307</v>
+        <v>173</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5819,13 +5739,11 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
@@ -5843,7 +5761,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5861,24 +5779,24 @@
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5892,7 +5810,7 @@
         <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>79</v>
@@ -5901,13 +5819,13 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>207</v>
+        <v>321</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5958,7 +5876,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -5976,24 +5894,24 @@
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>318</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6004,7 +5922,7 @@
         <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -6013,16 +5931,16 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6073,13 +5991,13 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>79</v>
@@ -6088,13 +6006,13 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>79</v>
+        <v>330</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6105,10 +6023,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6122,7 +6040,7 @@
         <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>79</v>
@@ -6131,13 +6049,13 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>326</v>
+        <v>193</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>327</v>
+        <v>194</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6164,13 +6082,13 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>329</v>
+        <v>79</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>79</v>
@@ -6188,7 +6106,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>325</v>
+        <v>195</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6200,44 +6118,44 @@
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>331</v>
+        <v>196</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>79</v>
@@ -6246,15 +6164,17 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>334</v>
+        <v>198</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6279,11 +6199,13 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="Y38" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z38" t="s" s="2">
-        <v>336</v>
+        <v>79</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>79</v>
@@ -6301,74 +6223,78 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>333</v>
+        <v>201</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>337</v>
+        <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>338</v>
+        <v>196</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>341</v>
+        <v>134</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6416,28 +6342,28 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>345</v>
+        <v>132</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>79</v>
@@ -6448,10 +6374,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6462,7 +6388,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6474,13 +6400,13 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>347</v>
+        <v>173</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6507,13 +6433,13 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
@@ -6531,13 +6457,13 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
@@ -6546,13 +6472,13 @@
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>351</v>
+        <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6563,10 +6489,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6574,7 +6500,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>89</v>
@@ -6586,18 +6512,20 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>207</v>
+        <v>349</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>208</v>
+        <v>350</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -6646,10 +6574,10 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>210</v>
+        <v>348</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>89</v>
@@ -6658,19 +6586,19 @@
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>211</v>
+        <v>354</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -6678,14 +6606,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6701,20 +6629,18 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>134</v>
+        <v>357</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>213</v>
+        <v>358</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -6763,7 +6689,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>216</v>
+        <v>356</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6775,16 +6701,16 @@
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>211</v>
+        <v>362</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6795,14 +6721,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6815,26 +6741,22 @@
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>79</v>
       </c>
@@ -6858,13 +6780,13 @@
         <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>366</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>79</v>
@@ -6882,7 +6804,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6894,16 +6816,16 @@
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>132</v>
+        <v>369</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6914,10 +6836,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6928,7 +6850,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -6937,16 +6859,16 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>187</v>
+        <v>371</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6973,13 +6895,13 @@
         <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>199</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>79</v>
@@ -6997,13 +6919,13 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
@@ -7012,13 +6934,13 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>366</v>
+        <v>132</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7029,10 +6951,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7040,37 +6962,39 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>368</v>
+        <v>264</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="R45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7114,10 +7038,10 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>89</v>
@@ -7129,16 +7053,16 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>79</v>
+        <v>379</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>373</v>
+        <v>132</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7146,10 +7070,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7169,16 +7093,16 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>376</v>
+        <v>173</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7205,13 +7129,13 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>79</v>
+        <v>384</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7229,7 +7153,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7244,13 +7168,13 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>381</v>
+        <v>132</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7261,10 +7185,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7278,7 +7202,7 @@
         <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>79</v>
@@ -7287,13 +7211,13 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>187</v>
+        <v>327</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7320,31 +7244,31 @@
         <v>79</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF47" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7356,16 +7280,16 @@
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>101</v>
+        <v>388</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>388</v>
+        <v>132</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7390,7 +7314,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7402,13 +7326,13 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>390</v>
+        <v>192</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>383</v>
+        <v>193</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>391</v>
+        <v>194</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7459,28 +7383,28 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>389</v>
+        <v>195</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>392</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -7491,50 +7415,48 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>394</v>
+        <v>198</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>395</v>
+        <v>199</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>396</v>
+        <v>151</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q49" t="s" s="2">
-        <v>397</v>
-      </c>
+      <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7578,28 +7500,28 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>393</v>
+        <v>201</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>398</v>
+        <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7610,14 +7532,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7630,22 +7552,26 @@
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>400</v>
+        <v>337</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7669,13 +7595,13 @@
         <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>402</v>
+        <v>79</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>403</v>
+        <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>79</v>
@@ -7693,7 +7619,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>399</v>
+        <v>339</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7705,7 +7631,7 @@
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
@@ -7725,10 +7651,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7739,7 +7665,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7751,13 +7677,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>347</v>
+        <v>192</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7808,25 +7734,25 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>407</v>
+        <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>132</v>
@@ -7840,10 +7766,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7866,13 +7792,13 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>207</v>
+        <v>103</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>208</v>
+        <v>397</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>209</v>
+        <v>398</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7923,7 +7849,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>210</v>
+        <v>396</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7935,7 +7861,7 @@
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
@@ -7944,7 +7870,7 @@
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -7955,21 +7881,21 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -7981,17 +7907,15 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>134</v>
+        <v>257</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>213</v>
+        <v>400</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>79</v>
@@ -8040,28 +7964,28 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>216</v>
+        <v>399</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>79</v>
+        <v>402</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8072,46 +7996,42 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>134</v>
+        <v>257</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>357</v>
+        <v>404</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8159,25 +8079,25 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>132</v>
@@ -8191,10 +8111,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8205,7 +8125,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8217,13 +8137,13 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8250,13 +8170,13 @@
         <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>79</v>
+        <v>411</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>79</v>
@@ -8274,13 +8194,13 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>79</v>
@@ -8292,7 +8212,7 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>132</v>
@@ -8306,10 +8226,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8332,13 +8252,13 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8365,13 +8285,13 @@
         <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>79</v>
@@ -8389,7 +8309,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8435,7 +8355,7 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8447,7 +8367,7 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>419</v>
@@ -8455,7 +8375,9 @@
       <c r="M57" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="N57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>79</v>
@@ -8510,7 +8432,7 @@
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>79</v>
@@ -8522,10 +8444,10 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>132</v>
+        <v>423</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8536,10 +8458,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8562,13 +8484,13 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>277</v>
+        <v>192</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>423</v>
+        <v>193</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>424</v>
+        <v>194</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8619,7 +8541,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>422</v>
+        <v>195</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8631,16 +8553,16 @@
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8651,14 +8573,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8677,15 +8599,17 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>427</v>
+        <v>198</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -8710,13 +8634,13 @@
         <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>429</v>
+        <v>79</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>430</v>
+        <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>79</v>
@@ -8734,7 +8658,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>426</v>
+        <v>201</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -8746,16 +8670,16 @@
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>431</v>
+        <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8766,42 +8690,46 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>433</v>
+        <v>337</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>79</v>
       </c>
@@ -8825,13 +8753,13 @@
         <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>436</v>
+        <v>79</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>79</v>
@@ -8849,19 +8777,19 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>432</v>
+        <v>339</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
@@ -8881,10 +8809,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8895,7 +8823,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -8907,17 +8835,15 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>347</v>
+        <v>257</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>79</v>
@@ -8966,13 +8892,13 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>79</v>
@@ -8984,10 +8910,10 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>442</v>
+        <v>252</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -8998,10 +8924,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9024,13 +8950,13 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>207</v>
+        <v>432</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>208</v>
+        <v>433</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>209</v>
+        <v>434</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9081,7 +9007,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>210</v>
+        <v>431</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9093,16 +9019,16 @@
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>211</v>
+        <v>436</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9113,21 +9039,21 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9139,17 +9065,15 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>134</v>
+        <v>264</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>213</v>
+        <v>438</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>79</v>
@@ -9198,28 +9122,28 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>216</v>
+        <v>437</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>79</v>
+        <v>440</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>211</v>
+        <v>441</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9230,14 +9154,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9250,26 +9174,22 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>134</v>
+        <v>327</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>357</v>
+        <v>443</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9317,7 +9237,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>359</v>
+        <v>442</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9329,7 +9249,7 @@
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
@@ -9349,10 +9269,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9375,13 +9295,13 @@
         <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>277</v>
+        <v>192</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>447</v>
+        <v>193</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>448</v>
+        <v>194</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9432,7 +9352,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>446</v>
+        <v>195</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9444,16 +9364,16 @@
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>272</v>
+        <v>196</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9464,21 +9384,21 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -9490,15 +9410,17 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>451</v>
+        <v>134</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>452</v>
+        <v>198</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>79</v>
@@ -9547,28 +9469,28 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>450</v>
+        <v>201</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>454</v>
+        <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>455</v>
+        <v>196</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9579,42 +9501,46 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>284</v>
+        <v>134</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>457</v>
+        <v>337</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>79</v>
       </c>
@@ -9662,28 +9588,28 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>456</v>
+        <v>339</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>459</v>
+        <v>79</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>460</v>
+        <v>132</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>79</v>
@@ -9694,10 +9620,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9705,11 +9631,11 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G68" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G68" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
       </c>
@@ -9720,13 +9646,13 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>347</v>
+        <v>192</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9777,13 +9703,13 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>79</v>
@@ -9809,10 +9735,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9835,13 +9761,13 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>208</v>
+        <v>452</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>209</v>
+        <v>453</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9892,7 +9818,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>210</v>
+        <v>451</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -9904,7 +9830,7 @@
         <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
@@ -9913,7 +9839,7 @@
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -9924,14 +9850,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -9950,17 +9876,15 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>213</v>
+        <v>455</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>79</v>
@@ -9985,13 +9909,13 @@
         <v>79</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>79</v>
+        <v>457</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>79</v>
@@ -10009,7 +9933,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>216</v>
+        <v>454</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10021,7 +9945,7 @@
         <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>79</v>
@@ -10030,7 +9954,7 @@
         <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10041,46 +9965,44 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>134</v>
+        <v>460</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>357</v>
+        <v>461</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>358</v>
+        <v>462</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10128,19 +10050,19 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>359</v>
+        <v>459</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
@@ -10160,10 +10082,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10186,15 +10108,17 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>207</v>
+        <v>460</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N72" s="2"/>
+        <v>466</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>79</v>
@@ -10243,7 +10167,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10273,589 +10197,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AC75" s="2"/>
-      <c r="AD75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="D76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AO77">
+  <autoFilter ref="A1:AO72">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10865,7 +10208,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI76">
+  <conditionalFormatting sqref="A2:AI71">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/ch-etoc/StructureDefinition-ch-etoc-immunization.xlsx
+++ b/ig/ch-etoc/StructureDefinition-ch-etoc-immunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0-ballot</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:00:41+00:00</t>
+    <t>2024-12-18T10:53:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -664,7 +664,7 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>

--- a/ig/ch-etoc/StructureDefinition-ch-etoc-immunization.xlsx
+++ b/ig/ch-etoc/StructureDefinition-ch-etoc-immunization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$70</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2673" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2597" uniqueCount="458">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T10:53:43+00:00</t>
+    <t>2025-12-16T15:56:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -370,7 +370,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -575,7 +575,7 @@
     <t>The reason why a vaccine was not administered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-status-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-status-reason|4.0.1</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -664,13 +664,6 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:$this}
-</t>
-  </si>
-  <si>
-    <t>Slice based on code value</t>
-  </si>
-  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -678,27 +671,6 @@
   </si>
   <si>
     <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.coding:swissVaccines</t>
-  </si>
-  <si>
-    <t>swissVaccines</t>
-  </si>
-  <si>
-    <t>Swiss Vaccine Code</t>
-  </si>
-  <si>
-    <t>Immunization.vaccineCode.coding:snomedctVaccines</t>
-  </si>
-  <si>
-    <t>snomedctVaccines</t>
-  </si>
-  <si>
-    <t>Vaccine Code by SNOMED CT</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-vacd/ValueSet/ch-vacd-vaccines-snomedct-vs</t>
   </si>
   <si>
     <t>Immunization.vaccineCode.text</t>
@@ -875,7 +847,7 @@
     <t>The source of the data for a record which is not from a primary source.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-origin</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-origin|4.0.1</t>
   </si>
   <si>
     <t>.participation[typeCode=INF].role[classCode=PAT] (this syntax for self-reported) .participation[typeCode=INF].role[classCode=LIC] (this syntax for health care professional) .participation[typeCode=INF].role[classCode=PRS] (this syntax for family member)</t>
@@ -884,7 +856,7 @@
     <t>Immunization.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -909,7 +881,7 @@
     <t>Immunization.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -977,7 +949,7 @@
     <t>The site at which the vaccine was administered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-site</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-site|4.0.1</t>
   </si>
   <si>
     <t>RXR-2</t>
@@ -1013,7 +985,7 @@
     <t>Immunization.doseQuantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1089,7 +1061,7 @@
     <t>The role a practitioner or organization plays in the immunization event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-function</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-function|4.0.1</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1157,7 +1129,7 @@
     <t>The reason why a vaccine was administered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-reason|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1169,7 +1141,7 @@
     <t>Immunization.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|DiagnosticReport|4.0.1)
 </t>
   </si>
   <si>
@@ -1209,7 +1181,7 @@
     <t>The reason why a dose is considered to be subpotent.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-subpotent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-subpotent-reason|4.0.1</t>
   </si>
   <si>
     <t>Immunization.education</t>
@@ -1291,7 +1263,7 @@
     <t>The patient's eligibility for a vaccation program.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-program-eligibility</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-program-eligibility|4.0.1</t>
   </si>
   <si>
     <t>OBX-5 : OBX-3 = 64994-7</t>
@@ -1309,7 +1281,7 @@
     <t>The source of funding used to purchase the vaccine administered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/immunization-funding-source</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-funding-source|4.0.1</t>
   </si>
   <si>
     <t>Immunization.reaction</t>
@@ -1354,7 +1326,7 @@
     <t>Immunization.reaction.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation)
+    <t xml:space="preserve">Reference(Observation|4.0.1)
 </t>
   </si>
   <si>
@@ -1780,7 +1752,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO72"/>
+  <dimension ref="A1:AO70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1789,17 +1761,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.40625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.78125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="20.203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.03125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.25" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="191.48046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="164.16015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1808,27 +1780,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="66.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="92.36328125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="43.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.20703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="79.18359375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="37.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="147.5546875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="236.8828125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="158.05078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="126.50390625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="203.0859375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="135.5" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3469,7 +3441,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>182</v>
       </c>
@@ -3891,19 +3863,19 @@
         <v>79</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -3921,28 +3893,26 @@
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO18" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AM18" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" hidden="true">
-      <c r="A19" t="s" s="2">
-        <v>213</v>
-      </c>
       <c r="B19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>79</v>
       </c>
@@ -3954,7 +3924,7 @@
         <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>79</v>
@@ -3963,19 +3933,19 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="O19" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>79</v>
@@ -4000,11 +3970,13 @@
         <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="Y19" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z19" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>79</v>
@@ -4022,13 +3994,13 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>79</v>
@@ -4040,10 +4012,10 @@
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>79</v>
@@ -4054,20 +4026,18 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>89</v>
@@ -4082,20 +4052,16 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4119,35 +4085,37 @@
         <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="Y20" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AA20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>79</v>
@@ -4156,16 +4124,16 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>79</v>
@@ -4173,10 +4141,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4190,29 +4158,25 @@
         <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4260,7 +4224,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4275,16 +4239,16 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
@@ -4292,10 +4256,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4318,15 +4282,17 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -4363,19 +4329,17 @@
         <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>89</v>
@@ -4390,29 +4354,31 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="AN22" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AO22" t="s" s="2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AO22" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" hidden="true">
-      <c r="A23" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="C23" s="2"/>
+      <c r="C23" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="D23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4424,24 +4390,26 @@
         <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>79</v>
@@ -4490,10 +4458,10 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>89</v>
@@ -4505,27 +4473,27 @@
         <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>79</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4533,7 +4501,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>89</v>
@@ -4545,20 +4513,18 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>79</v>
@@ -4595,20 +4561,22 @@
         <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AC24" s="2"/>
-      <c r="AD24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="AG24" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>89</v>
@@ -4620,10 +4588,10 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>252</v>
@@ -4632,19 +4600,17 @@
         <v>253</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>79</v>
       </c>
@@ -4656,7 +4622,7 @@
         <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>79</v>
@@ -4665,16 +4631,16 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="N25" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4724,10 +4690,10 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>89</v>
@@ -4739,27 +4705,27 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>254</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4782,15 +4748,17 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>257</v>
+        <v>173</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -4815,13 +4783,13 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>79</v>
+        <v>266</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>79</v>
@@ -4839,7 +4807,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4857,13 +4825,13 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>79</v>
+        <v>259</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>79</v>
@@ -4871,10 +4839,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4894,20 +4862,18 @@
         <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -4956,7 +4922,7 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -4971,16 +4937,16 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>273</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>79</v>
@@ -4988,10 +4954,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5014,17 +4980,15 @@
         <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>173</v>
+        <v>278</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -5049,13 +5013,13 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>275</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>276</v>
+        <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
@@ -5073,7 +5037,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5091,24 +5055,24 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>270</v>
+        <v>79</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5131,13 +5095,13 @@
         <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>279</v>
+        <v>192</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5188,7 +5152,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5203,27 +5167,27 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>285</v>
+        <v>79</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5246,13 +5210,13 @@
         <v>79</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5303,7 +5267,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5321,24 +5285,24 @@
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5361,13 +5325,13 @@
         <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5394,13 +5358,13 @@
         <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>79</v>
+        <v>300</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>79</v>
@@ -5418,7 +5382,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5436,24 +5400,24 @@
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5476,13 +5440,13 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>300</v>
+        <v>173</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5509,13 +5473,11 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>79</v>
@@ -5533,7 +5495,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5551,24 +5513,24 @@
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5591,13 +5553,13 @@
         <v>79</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>173</v>
+        <v>312</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5624,13 +5586,13 @@
         <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>309</v>
+        <v>79</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>79</v>
@@ -5648,7 +5610,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5666,24 +5628,24 @@
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5694,7 +5656,7 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>79</v>
@@ -5703,16 +5665,16 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>173</v>
+        <v>318</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5739,11 +5701,13 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y34" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z34" t="s" s="2">
-        <v>316</v>
+        <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
@@ -5761,13 +5725,13 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>79</v>
@@ -5776,27 +5740,27 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>319</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5819,13 +5783,13 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>321</v>
+        <v>192</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>322</v>
+        <v>193</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>323</v>
+        <v>194</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5876,7 +5840,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>320</v>
+        <v>195</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -5888,16 +5852,16 @@
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>325</v>
+        <v>196</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -5908,14 +5872,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5931,18 +5895,20 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>327</v>
+        <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>328</v>
+        <v>198</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -5991,7 +5957,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>326</v>
+        <v>201</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6003,16 +5969,16 @@
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>332</v>
+        <v>196</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6023,42 +5989,46 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6106,19 +6076,19 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>195</v>
+        <v>330</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
@@ -6127,7 +6097,7 @@
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6138,21 +6108,21 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6161,20 +6131,18 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>198</v>
+        <v>332</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6199,13 +6167,13 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>79</v>
+        <v>334</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>79</v>
@@ -6223,28 +6191,28 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>201</v>
+        <v>331</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>79</v>
+        <v>337</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>196</v>
+        <v>338</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>79</v>
@@ -6255,46 +6223,44 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>336</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>134</v>
+        <v>340</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6345,28 +6311,28 @@
         <v>339</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>79</v>
+        <v>344</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>132</v>
+        <v>345</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
@@ -6374,10 +6340,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6388,7 +6354,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6400,13 +6366,13 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>173</v>
+        <v>348</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6433,13 +6399,13 @@
         <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>343</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>344</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>79</v>
@@ -6457,13 +6423,13 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
@@ -6472,13 +6438,13 @@
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>79</v>
+        <v>352</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
@@ -6489,10 +6455,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6500,10 +6466,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6512,20 +6478,18 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>349</v>
+        <v>173</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -6550,13 +6514,13 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -6574,13 +6538,13 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>79</v>
@@ -6589,16 +6553,16 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -6606,10 +6570,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6629,16 +6593,16 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6689,7 +6653,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6704,13 +6668,13 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>361</v>
+        <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>362</v>
+        <v>132</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -6721,10 +6685,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6735,32 +6699,36 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>173</v>
+        <v>255</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="R43" t="s" s="2">
         <v>79</v>
       </c>
@@ -6780,13 +6748,13 @@
         <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>79</v>
@@ -6804,13 +6772,13 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
@@ -6819,13 +6787,13 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>369</v>
+        <v>132</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -6836,10 +6804,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6862,13 +6830,13 @@
         <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>371</v>
+        <v>173</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6895,13 +6863,13 @@
         <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>79</v>
@@ -6919,7 +6887,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -6934,7 +6902,7 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
@@ -6951,10 +6919,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6965,36 +6933,32 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="Q45" t="s" s="2">
-        <v>378</v>
-      </c>
+      <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
         <v>79</v>
       </c>
@@ -7038,25 +7002,25 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>101</v>
+        <v>379</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>132</v>
@@ -7084,7 +7048,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7096,13 +7060,13 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>381</v>
+        <v>193</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>382</v>
+        <v>194</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7129,13 +7093,13 @@
         <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>383</v>
+        <v>79</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>79</v>
@@ -7153,19 +7117,19 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>380</v>
+        <v>195</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
@@ -7174,7 +7138,7 @@
         <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7185,14 +7149,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7211,15 +7175,17 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>327</v>
+        <v>134</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>386</v>
+        <v>198</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7268,7 +7234,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>385</v>
+        <v>201</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7280,7 +7246,7 @@
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>388</v>
+        <v>140</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
@@ -7289,7 +7255,7 @@
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7300,42 +7266,46 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7383,19 +7353,19 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>195</v>
+        <v>330</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
@@ -7404,7 +7374,7 @@
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -7415,21 +7385,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7441,17 +7411,15 @@
         <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>198</v>
+        <v>384</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>79</v>
@@ -7500,28 +7468,28 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>201</v>
+        <v>383</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>79</v>
+        <v>386</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7532,46 +7500,42 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>336</v>
+        <v>79</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>337</v>
+        <v>388</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7619,19 +7583,19 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>339</v>
+        <v>387</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
@@ -7651,10 +7615,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7677,13 +7641,13 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7734,7 +7698,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7752,7 +7716,7 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>132</v>
@@ -7766,10 +7730,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7792,13 +7756,13 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>103</v>
+        <v>248</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7849,7 +7813,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7867,7 +7831,7 @@
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>132</v>
@@ -7881,10 +7845,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7895,7 +7859,7 @@
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -7907,13 +7871,13 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>257</v>
+        <v>173</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7940,13 +7904,13 @@
         <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>79</v>
+        <v>401</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>79</v>
+        <v>402</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
@@ -7964,13 +7928,13 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
@@ -7982,7 +7946,7 @@
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>132</v>
@@ -7996,10 +7960,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8022,13 +7986,13 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>257</v>
+        <v>173</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8055,13 +8019,13 @@
         <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>79</v>
+        <v>408</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>79</v>
@@ -8079,7 +8043,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8097,7 +8061,7 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>406</v>
+        <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>132</v>
@@ -8111,10 +8075,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8137,15 +8101,17 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>173</v>
+        <v>318</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -8170,13 +8136,13 @@
         <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>79</v>
@@ -8194,7 +8160,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8212,10 +8178,10 @@
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>132</v>
+        <v>414</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8226,10 +8192,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8252,13 +8218,13 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>414</v>
+        <v>193</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>415</v>
+        <v>194</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8285,13 +8251,13 @@
         <v>79</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>416</v>
+        <v>79</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>79</v>
@@ -8309,7 +8275,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>413</v>
+        <v>195</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8321,7 +8287,7 @@
         <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
@@ -8330,7 +8296,7 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>79</v>
@@ -8341,14 +8307,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8367,16 +8333,16 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>327</v>
+        <v>134</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>419</v>
+        <v>198</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>420</v>
+        <v>199</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>421</v>
+        <v>151</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8426,7 +8392,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>418</v>
+        <v>201</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8438,16 +8404,16 @@
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>423</v>
+        <v>196</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -8458,42 +8424,46 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8541,19 +8511,19 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>195</v>
+        <v>330</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
@@ -8562,7 +8532,7 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -8573,21 +8543,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8599,17 +8569,15 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>134</v>
+        <v>248</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>198</v>
+        <v>419</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -8658,28 +8626,28 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>201</v>
+        <v>418</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -8690,46 +8658,42 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>336</v>
+        <v>79</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>134</v>
+        <v>423</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>337</v>
+        <v>424</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>79</v>
       </c>
@@ -8777,28 +8741,28 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>339</v>
+        <v>422</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>79</v>
+        <v>426</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>132</v>
+        <v>427</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -8809,10 +8773,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8835,13 +8799,13 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8892,7 +8856,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -8910,10 +8874,10 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>252</v>
+        <v>432</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -8924,10 +8888,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8938,7 +8902,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -8950,13 +8914,13 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>432</v>
+        <v>318</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9007,13 +8971,13 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>79</v>
@@ -9025,10 +8989,10 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>436</v>
+        <v>132</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9039,10 +9003,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9065,13 +9029,13 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>264</v>
+        <v>192</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>438</v>
+        <v>193</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>439</v>
+        <v>194</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9122,7 +9086,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>437</v>
+        <v>195</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9134,16 +9098,16 @@
         <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>440</v>
+        <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>441</v>
+        <v>196</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9154,14 +9118,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9180,15 +9144,17 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>327</v>
+        <v>134</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>443</v>
+        <v>198</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>79</v>
@@ -9237,7 +9203,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>442</v>
+        <v>201</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9249,7 +9215,7 @@
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
@@ -9258,7 +9224,7 @@
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -9269,42 +9235,46 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>193</v>
+        <v>328</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9352,19 +9322,19 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>195</v>
+        <v>330</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
@@ -9373,7 +9343,7 @@
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -9384,21 +9354,21 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -9410,17 +9380,15 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>198</v>
+        <v>440</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>79</v>
@@ -9469,19 +9437,19 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>201</v>
+        <v>439</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
@@ -9490,7 +9458,7 @@
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -9501,46 +9469,42 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>336</v>
+        <v>79</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>134</v>
+        <v>278</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>337</v>
+        <v>443</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>79</v>
       </c>
@@ -9588,19 +9552,19 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>339</v>
+        <v>442</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
@@ -9620,10 +9584,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9634,7 +9598,7 @@
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -9646,13 +9610,13 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9679,13 +9643,13 @@
         <v>79</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>79</v>
+        <v>449</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>79</v>
@@ -9703,13 +9667,13 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>79</v>
@@ -9735,10 +9699,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9746,7 +9710,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>89</v>
@@ -9761,7 +9725,7 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>287</v>
+        <v>451</v>
       </c>
       <c r="L69" t="s" s="2">
         <v>452</v>
@@ -9769,7 +9733,9 @@
       <c r="M69" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="N69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>79</v>
@@ -9818,10 +9784,10 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>89</v>
@@ -9850,10 +9816,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9864,7 +9830,7 @@
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -9876,15 +9842,17 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>173</v>
+        <v>451</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>457</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>79</v>
@@ -9909,13 +9877,13 @@
         <v>79</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>457</v>
+        <v>79</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>458</v>
+        <v>79</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>79</v>
@@ -9933,13 +9901,13 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>79</v>
@@ -9963,252 +9931,18 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AO72">
-    <filterColumn colId="6">
+  <autoFilter ref="A1:AO70">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI71">
+  <conditionalFormatting sqref="A2:AI69">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
